--- a/medicine/Enfance/Kirsten_Miller/Kirsten_Miller.xlsx
+++ b/medicine/Enfance/Kirsten_Miller/Kirsten_Miller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirsten Miller, née en 1973, est une écrivaine américaine, connue pour être l'auteur de la série Kiki Strike. Elle vit actuellement à New York[Quand ?].
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,20 +553,127 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Kiki Strike
-Dans la cité clandestine, Pocket Jeunesse, 2009 ((en) Inside the Shadow City, 2006), trad. Julie Lafon, 458 p.  (ISBN 978-2-266-17901-0)
+          <t>Série Kiki Strike</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans la cité clandestine, Pocket Jeunesse, 2009 ((en) Inside the Shadow City, 2006), trad. Julie Lafon, 458 p.  (ISBN 978-2-266-17901-0)
 La Tombe de l'impératrice, Pocket Jeunesse, 2009 ((en) The Empress's Tomb, 2007), trad. Julie Lafon, 431 p.  (ISBN 978-2-266-18845-6)
-(en) The Darkness Dwellers, 2013
-Série The Eternal Ones
-(en) The Eternal Ones, 2010
-(en) All You Desire, 2011
-Série Cauchemars
-Cette série est coécrite avec Jason Segel.
+(en) The Darkness Dwellers, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Eternal Ones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Eternal Ones, 2010
+(en) All You Desire, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Cauchemars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Jason Segel.
 Cauchemars, Bayard Jeunesse, 2017 ((en) Nightmares!, 2014), trad. Marion Roman, 352 p.  (ISBN 978-2-747-06184-1)
 SOS zombies en détresse, Bayard Jeunesse, 2018 ((en) The Sleepwalker Tonic, 2015), trad. Marion Roman, 352 p.  (ISBN 978-2-747-08293-8)
-(en) The Lost Lullaby, 2016
-Romans indépendants
-(en) How to Lead a Life of Crime, 2013</t>
+(en) The Lost Lullaby, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kirsten_Miller</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) How to Lead a Life of Crime, 2013</t>
         </is>
       </c>
     </row>
